--- a/APM files/138591414/138591414 IMPORT 8 FeeSet Cloud Import copy.xlsx
+++ b/APM files/138591414/138591414 IMPORT 8 FeeSet Cloud Import copy.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9AF39D-F3C7-E24A-B8D5-EA7B537614BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1E9A4-2055-834E-AC98-5A5B4E551AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Fee Set Type</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -98,10 +95,28 @@
     <t>Dream_Inn_HolidayHomesRentalLLC</t>
   </si>
   <si>
-    <t>12/14/2024</t>
-  </si>
-  <si>
-    <t>111503409</t>
+    <t>115150254</t>
+  </si>
+  <si>
+    <t>115150257</t>
+  </si>
+  <si>
+    <t>115150258</t>
+  </si>
+  <si>
+    <t>115150260</t>
+  </si>
+  <si>
+    <t>115150261</t>
+  </si>
+  <si>
+    <t>115150262</t>
+  </si>
+  <si>
+    <t>04/23/2025</t>
+  </si>
+  <si>
+    <t>FeeSet Type</t>
   </si>
 </sst>
 </file>
@@ -167,7 +182,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -438,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -491,51 +517,51 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>134802983</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>0.18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -545,34 +571,194 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>134802983</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>305</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>134802983</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>0.18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>305</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>134802983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0.18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>305</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>134802983</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0.18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>305</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>134802983</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>305</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -730,20 +916,17 @@
       <c r="E33" s="2"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="I35" s="3"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/APM files/138591414/138591414 IMPORT 8 FeeSet Cloud Import copy.xlsx
+++ b/APM files/138591414/138591414 IMPORT 8 FeeSet Cloud Import copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1E9A4-2055-834E-AC98-5A5B4E551AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C194FD-A91D-7F4F-9C39-A7D8C8F96251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="31">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -92,9 +92,6 @@
     <t>SF ID</t>
   </si>
   <si>
-    <t>Dream_Inn_HolidayHomesRentalLLC</t>
-  </si>
-  <si>
     <t>115150254</t>
   </si>
   <si>
@@ -113,10 +110,25 @@
     <t>115150262</t>
   </si>
   <si>
-    <t>04/23/2025</t>
-  </si>
-  <si>
-    <t>FeeSet Type</t>
+    <t>04/24/2025</t>
+  </si>
+  <si>
+    <t>Barsala_EPF-AdultChild-30_SC-Tax-89</t>
+  </si>
+  <si>
+    <t>ChildAgeA</t>
+  </si>
+  <si>
+    <t>Barsala_EPF-AdultChild-30_SC-Tax-129</t>
+  </si>
+  <si>
+    <t>Barsala_EPF-AdultChild-30_SC-Tax-159</t>
+  </si>
+  <si>
+    <t>Fee Set Type</t>
+  </si>
+  <si>
+    <t>Taxable Service Charge Per Stay Amount</t>
   </si>
 </sst>
 </file>
@@ -173,16 +185,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -464,16 +487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
@@ -486,9 +509,10 @@
     <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -531,20 +555,23 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>134802983</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>138591414</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
@@ -555,7 +582,7 @@
         <v>0.18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -567,22 +594,25 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>134802983</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>138591414</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -593,34 +623,37 @@
         <v>0.18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>134802983</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>138591414</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -631,7 +664,7 @@
         <v>0.18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -643,22 +676,25 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>134802983</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>138591414</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -669,34 +705,37 @@
         <v>0.18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>134802983</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>138591414</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -707,7 +746,7 @@
         <v>0.18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -719,22 +758,25 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>134802983</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>138591414</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -745,180 +787,1257 @@
         <v>0.18</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>0.18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="I33" s="3"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>0.18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>0.18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0.18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>0.18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="O12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>0.18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>0.18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>0.18</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>0.18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="O16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>0.18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>0.18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="O18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>0.18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>0.18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>0.18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>0.18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>0.18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>0.18</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>0.18</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>0.18</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>0.18</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>0.18</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>0.18</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>0.18</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>0.18</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>0.18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>0.18</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>0.18</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>0.18</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>0.18</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>30</v>
+      </c>
+      <c r="O36">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>138591414</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37">
+        <v>0.18</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>30</v>
+      </c>
+      <c r="O37">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
